--- a/output/1Y_P48_KFSDIV.xlsx
+++ b/output/1Y_P48_KFSDIV.xlsx
@@ -656,7 +656,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
@@ -727,16 +727,16 @@
         <v>16.4264</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>17.107</v>
       </c>
       <c r="C3" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E3" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="F3" s="1">
-        <v>584.556</v>
+        <v>583.3863</v>
       </c>
       <c r="H3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0414</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>16.8894</v>
       </c>
       <c r="C4" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D4" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E4" s="1">
-        <v>1193.3321</v>
+        <v>1190.9456</v>
       </c>
       <c r="F4" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="H4" s="1">
-        <v>20154.5446</v>
+        <v>20074.1023</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20154.5446</v>
+        <v>20074.1023</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.7598</v>
+        <v>16.7934</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>547.8985</v>
+        <v>546.8033</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9452.101500000001</v>
+        <v>-9453.1967</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0127</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>16.4004</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E5" s="1">
-        <v>1785.4195</v>
+        <v>1781.8504</v>
       </c>
       <c r="F5" s="1">
-        <v>613.4532</v>
+        <v>612.2175999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>29281.5938</v>
+        <v>29164.6141</v>
       </c>
       <c r="I5" s="1">
-        <v>547.8985</v>
+        <v>546.8033</v>
       </c>
       <c r="J5" s="1">
-        <v>29829.4923</v>
+        <v>29711.4174</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.8028</v>
+        <v>16.8364</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10060.8776</v>
+        <v>-10060.7559</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0108</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>15.3877</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E6" s="1">
-        <v>2398.8727</v>
+        <v>2394.068</v>
       </c>
       <c r="F6" s="1">
-        <v>653.826</v>
+        <v>652.5119999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>36913.1331</v>
+        <v>36765.4628</v>
       </c>
       <c r="I6" s="1">
-        <v>487.0209</v>
+        <v>486.0474</v>
       </c>
       <c r="J6" s="1">
-        <v>37400.154</v>
+        <v>37251.5102</v>
       </c>
       <c r="K6" s="1">
-        <v>40060.8776</v>
+        <v>40060.7559</v>
       </c>
       <c r="L6" s="1">
-        <v>16.6999</v>
+        <v>16.7333</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10060.8776</v>
+        <v>-10060.7559</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.061</v>
+        <v>-0.0619</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>14.6367</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E7" s="1">
-        <v>3052.6986</v>
+        <v>3046.58</v>
       </c>
       <c r="F7" s="1">
-        <v>687.3733999999999</v>
+        <v>685.9918</v>
       </c>
       <c r="H7" s="1">
-        <v>44681.434</v>
+        <v>44502.6123</v>
       </c>
       <c r="I7" s="1">
-        <v>426.1433</v>
+        <v>425.2915</v>
       </c>
       <c r="J7" s="1">
-        <v>45107.5773</v>
+        <v>44927.9038</v>
       </c>
       <c r="K7" s="1">
-        <v>50121.7552</v>
+        <v>50121.5119</v>
       </c>
       <c r="L7" s="1">
-        <v>16.4188</v>
+        <v>16.4517</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10060.8776</v>
+        <v>-10060.7559</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0484</v>
+        <v>-0.0492</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.0061</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E8" s="1">
-        <v>3740.072</v>
+        <v>3732.5718</v>
       </c>
       <c r="F8" s="1">
-        <v>773.5507</v>
+        <v>771.9921000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>48643.7502</v>
+        <v>48449.1551</v>
       </c>
       <c r="I8" s="1">
-        <v>365.2657</v>
+        <v>364.5356</v>
       </c>
       <c r="J8" s="1">
-        <v>49009.0159</v>
+        <v>48813.6906</v>
       </c>
       <c r="K8" s="1">
-        <v>60182.6328</v>
+        <v>60182.2678</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0913</v>
+        <v>16.1235</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1373.7144</v>
+        <v>1370.961</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8687.163200000001</v>
+        <v>-8689.794900000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.1107</v>
+        <v>-0.1113</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.835</v>
       </c>
       <c r="C9" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D9" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E9" s="1">
-        <v>4513.6227</v>
+        <v>4504.5639</v>
       </c>
       <c r="F9" s="1">
-        <v>747.0633</v>
+        <v>745.522</v>
       </c>
       <c r="H9" s="1">
-        <v>62445.9697</v>
+        <v>62195.8655</v>
       </c>
       <c r="I9" s="1">
-        <v>1678.1024</v>
+        <v>1674.7406</v>
       </c>
       <c r="J9" s="1">
-        <v>64124.0721</v>
+        <v>63870.6061</v>
       </c>
       <c r="K9" s="1">
-        <v>70243.5104</v>
+        <v>70243.02370000001</v>
       </c>
       <c r="L9" s="1">
-        <v>15.5626</v>
+        <v>15.5937</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10335.6205</v>
+        <v>-10334.9481</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0867</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>14.4216</v>
       </c>
       <c r="C10" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D10" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E10" s="1">
-        <v>5260.686</v>
+        <v>5250.0859</v>
       </c>
       <c r="F10" s="1">
-        <v>716.6763999999999</v>
+        <v>715.1966</v>
       </c>
       <c r="H10" s="1">
-        <v>75867.5086</v>
+        <v>75563.43700000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1342.482</v>
+        <v>1339.7925</v>
       </c>
       <c r="J10" s="1">
-        <v>77209.9905</v>
+        <v>76903.2295</v>
       </c>
       <c r="K10" s="1">
-        <v>80579.1309</v>
+        <v>80577.9718</v>
       </c>
       <c r="L10" s="1">
-        <v>15.3172</v>
+        <v>15.3479</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10335.6205</v>
+        <v>-10334.9481</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0416</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.2404</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E11" s="1">
-        <v>5977.3624</v>
+        <v>5965.2825</v>
       </c>
       <c r="F11" s="1">
-        <v>780.6124</v>
+        <v>779.0025000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>79142.6686</v>
+        <v>78824.6467</v>
       </c>
       <c r="I11" s="1">
-        <v>1006.8615</v>
+        <v>1004.8444</v>
       </c>
       <c r="J11" s="1">
-        <v>80149.5301</v>
+        <v>79829.4911</v>
       </c>
       <c r="K11" s="1">
-        <v>90914.75139999999</v>
+        <v>90912.91989999999</v>
       </c>
       <c r="L11" s="1">
-        <v>15.2098</v>
+        <v>15.2403</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>1893.8469</v>
+        <v>1890.0309</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8441.773499999999</v>
+        <v>-8444.9172</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.081</v>
+        <v>-0.0814</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.382</v>
       </c>
       <c r="C12" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D12" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E12" s="1">
-        <v>6757.9748</v>
+        <v>6744.285</v>
       </c>
       <c r="F12" s="1">
-        <v>911.2053</v>
+        <v>909.1759</v>
       </c>
       <c r="H12" s="1">
-        <v>83677.2436</v>
+        <v>83340.47870000001</v>
       </c>
       <c r="I12" s="1">
-        <v>2565.0879</v>
+        <v>2559.9272</v>
       </c>
       <c r="J12" s="1">
-        <v>86242.3315</v>
+        <v>85900.4059</v>
       </c>
       <c r="K12" s="1">
-        <v>101250.3719</v>
+        <v>101247.8681</v>
       </c>
       <c r="L12" s="1">
-        <v>14.9824</v>
+        <v>15.0124</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11282.544</v>
+        <v>-11279.9636</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0433</v>
+        <v>-0.0437</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.9583</v>
       </c>
       <c r="C13" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D13" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E13" s="1">
-        <v>7669.1801</v>
+        <v>7653.4609</v>
       </c>
       <c r="F13" s="1">
-        <v>943.4906</v>
+        <v>941.3855</v>
       </c>
       <c r="H13" s="1">
-        <v>91710.3559</v>
+        <v>91339.4639</v>
       </c>
       <c r="I13" s="1">
-        <v>1282.544</v>
+        <v>1279.9636</v>
       </c>
       <c r="J13" s="1">
-        <v>92992.8999</v>
+        <v>92619.42750000001</v>
       </c>
       <c r="K13" s="1">
-        <v>112532.9159</v>
+        <v>112527.8317</v>
       </c>
       <c r="L13" s="1">
-        <v>14.6734</v>
+        <v>14.7029</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11282.544</v>
+        <v>-11279.9636</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0338</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>12.2036</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E14" s="1">
-        <v>8612.670700000001</v>
+        <v>8594.8464</v>
       </c>
       <c r="F14" s="1">
-        <v>-8612.670700000001</v>
+        <v>-8594.8464</v>
       </c>
       <c r="H14" s="1">
-        <v>105105.588</v>
+        <v>104678.3536</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>105105.588</v>
+        <v>104678.3536</v>
       </c>
       <c r="K14" s="1">
-        <v>123815.4598</v>
+        <v>123807.7953</v>
       </c>
       <c r="L14" s="1">
-        <v>14.376</v>
+        <v>14.4049</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2760.9048</v>
+        <v>2755.2459</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>107866.4928</v>
+        <v>107433.5995</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>16.4264</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>17.107</v>
       </c>
       <c r="C3" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E3" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="F3" s="1">
-        <v>560.3359</v>
+        <v>563.8948</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9585.666999999999</v>
+        <v>-9665.8892</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0414</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>16.8894</v>
       </c>
       <c r="C4" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D4" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E4" s="1">
-        <v>1169.1121</v>
+        <v>1171.454</v>
       </c>
       <c r="F4" s="1">
-        <v>607.1605</v>
+        <v>608.3699</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19745.4843</v>
+        <v>19745.5602</v>
       </c>
       <c r="I4" s="1">
-        <v>414.333</v>
+        <v>334.1108</v>
       </c>
       <c r="J4" s="1">
-        <v>20159.8173</v>
+        <v>20079.671</v>
       </c>
       <c r="K4" s="1">
-        <v>19585.667</v>
+        <v>19665.8892</v>
       </c>
       <c r="L4" s="1">
-        <v>16.7526</v>
+        <v>16.7876</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>547.8985</v>
+        <v>546.8033</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9706.677900000001</v>
+        <v>-9748.7623</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0125</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>16.4004</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E5" s="1">
-        <v>1776.2726</v>
+        <v>1779.8239</v>
       </c>
       <c r="F5" s="1">
-        <v>652.8899</v>
+        <v>644.1402</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29131.5803</v>
+        <v>29131.4459</v>
       </c>
       <c r="I5" s="1">
-        <v>707.6550999999999</v>
+        <v>585.3484999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>29839.2355</v>
+        <v>29716.7944</v>
       </c>
       <c r="K5" s="1">
-        <v>29840.2434</v>
+        <v>29961.4548</v>
       </c>
       <c r="L5" s="1">
-        <v>16.7994</v>
+        <v>16.8339</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10707.6551</v>
+        <v>-10585.3485</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0106</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>15.3877</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E6" s="1">
-        <v>2429.1624</v>
+        <v>2423.9641</v>
       </c>
       <c r="F6" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37379.2227</v>
+        <v>37224.5739</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37379.2227</v>
+        <v>37224.5739</v>
       </c>
       <c r="K6" s="1">
-        <v>40547.8985</v>
+        <v>40546.8033</v>
       </c>
       <c r="L6" s="1">
-        <v>16.6921</v>
+        <v>16.7275</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0617</v>
+        <v>-0.06270000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>14.6367</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E7" s="1">
-        <v>3079.0321</v>
+        <v>3072.5356</v>
       </c>
       <c r="F7" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>45066.8695</v>
+        <v>44881.7565</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45066.8695</v>
+        <v>44881.7565</v>
       </c>
       <c r="K7" s="1">
-        <v>50547.8985</v>
+        <v>50546.8033</v>
       </c>
       <c r="L7" s="1">
-        <v>16.4168</v>
+        <v>16.4512</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0488</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.0061</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E8" s="1">
-        <v>3762.2462</v>
+        <v>3754.3848</v>
       </c>
       <c r="F8" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>48932.1508</v>
+        <v>48732.2898</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>48932.1508</v>
+        <v>48732.2898</v>
       </c>
       <c r="K8" s="1">
-        <v>60547.8985</v>
+        <v>60546.8033</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0936</v>
+        <v>16.127</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1385.5645</v>
+        <v>1382.641</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8614.4355</v>
+        <v>-8617.359</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.1114</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.835</v>
       </c>
       <c r="C9" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D9" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E9" s="1">
-        <v>4531.1162</v>
+        <v>4521.7149</v>
       </c>
       <c r="F9" s="1">
-        <v>822.9537</v>
+        <v>821.0984</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>62687.9931</v>
+        <v>62432.6745</v>
       </c>
       <c r="I9" s="1">
-        <v>1385.5645</v>
+        <v>1382.641</v>
       </c>
       <c r="J9" s="1">
-        <v>64073.5575</v>
+        <v>63815.3155</v>
       </c>
       <c r="K9" s="1">
-        <v>70547.8985</v>
+        <v>70546.8033</v>
       </c>
       <c r="L9" s="1">
-        <v>15.5697</v>
+        <v>15.6018</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11385.5645</v>
+        <v>-11382.641</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0872</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>14.4216</v>
       </c>
       <c r="C10" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D10" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E10" s="1">
-        <v>5354.0699</v>
+        <v>5342.8133</v>
       </c>
       <c r="F10" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77214.255</v>
+        <v>76898.0439</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77214.255</v>
+        <v>76898.0439</v>
       </c>
       <c r="K10" s="1">
-        <v>81933.463</v>
+        <v>81929.4443</v>
       </c>
       <c r="L10" s="1">
-        <v>15.303</v>
+        <v>15.3345</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0424</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>13.2404</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E11" s="1">
-        <v>6047.4743</v>
+        <v>6034.8309</v>
       </c>
       <c r="F11" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>80070.9783</v>
+        <v>79743.6523</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>80070.9783</v>
+        <v>79743.6523</v>
       </c>
       <c r="K11" s="1">
-        <v>91933.463</v>
+        <v>91929.4443</v>
       </c>
       <c r="L11" s="1">
-        <v>15.202</v>
+        <v>15.2331</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>1927.4652</v>
+        <v>1923.4128</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8072.5348</v>
+        <v>-8076.5872</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.382</v>
       </c>
       <c r="C12" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D12" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E12" s="1">
-        <v>6802.7385</v>
+        <v>6788.5865</v>
       </c>
       <c r="F12" s="1">
-        <v>963.2907</v>
+        <v>961.0385</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>84231.5076</v>
+        <v>83887.9212</v>
       </c>
       <c r="I12" s="1">
-        <v>1927.4652</v>
+        <v>1923.4128</v>
       </c>
       <c r="J12" s="1">
-        <v>86158.9728</v>
+        <v>85811.334</v>
       </c>
       <c r="K12" s="1">
-        <v>101933.463</v>
+        <v>101929.4443</v>
       </c>
       <c r="L12" s="1">
-        <v>14.9842</v>
+        <v>15.0148</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11927.4652</v>
+        <v>-11923.4128</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0434</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.9583</v>
       </c>
       <c r="C13" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D13" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E13" s="1">
-        <v>7766.0291</v>
+        <v>7749.625</v>
       </c>
       <c r="F13" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>92868.50629999999</v>
+        <v>92487.125</v>
       </c>
       <c r="I13" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>92868.50629999999</v>
+        <v>92487.125</v>
       </c>
       <c r="K13" s="1">
-        <v>113860.9281</v>
+        <v>113852.8571</v>
       </c>
       <c r="L13" s="1">
-        <v>14.6614</v>
+        <v>14.6914</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>12.2036</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E14" s="1">
-        <v>8602.268400000001</v>
+        <v>8584.1893</v>
       </c>
       <c r="F14" s="1">
-        <v>-8602.268400000001</v>
+        <v>-8584.1893</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>104978.6427</v>
+        <v>104548.5589</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>104978.6427</v>
+        <v>104548.5589</v>
       </c>
       <c r="K14" s="1">
-        <v>123860.9281</v>
+        <v>123852.8571</v>
       </c>
       <c r="L14" s="1">
-        <v>14.3986</v>
+        <v>14.428</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2795.7705</v>
+        <v>2789.865</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>107774.4132</v>
+        <v>107338.4239</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2153,7 @@
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>16.4264</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>17.107</v>
       </c>
       <c r="C3" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E3" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="F3" s="1">
-        <v>563.2587</v>
+        <v>566.8234</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9635.666999999999</v>
+        <v>-9716.0898</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0414</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>16.8894</v>
       </c>
       <c r="C4" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D4" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E4" s="1">
-        <v>1172.0348</v>
+        <v>1174.3826</v>
       </c>
       <c r="F4" s="1">
-        <v>613.1339</v>
+        <v>607.6812</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19794.848</v>
+        <v>19794.9241</v>
       </c>
       <c r="I4" s="1">
-        <v>364.333</v>
+        <v>283.9102</v>
       </c>
       <c r="J4" s="1">
-        <v>20159.181</v>
+        <v>20078.8343</v>
       </c>
       <c r="K4" s="1">
-        <v>19635.667</v>
+        <v>19716.0898</v>
       </c>
       <c r="L4" s="1">
-        <v>16.7535</v>
+        <v>16.7885</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>547.8985</v>
+        <v>546.8033</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9807.5648</v>
+        <v>-9737.106900000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0125</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>16.4004</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E5" s="1">
-        <v>1785.1687</v>
+        <v>1782.0638</v>
       </c>
       <c r="F5" s="1">
-        <v>643.6897</v>
+        <v>641.7945999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29277.481</v>
+        <v>29168.1079</v>
       </c>
       <c r="I5" s="1">
-        <v>556.7682</v>
+        <v>546.8033</v>
       </c>
       <c r="J5" s="1">
-        <v>29834.2492</v>
+        <v>29714.9112</v>
       </c>
       <c r="K5" s="1">
-        <v>29991.1303</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.8002</v>
+        <v>16.8344</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10556.7682</v>
+        <v>-10546.8033</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0108</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>15.3877</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E6" s="1">
-        <v>2428.8584</v>
+        <v>2423.8584</v>
       </c>
       <c r="F6" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37374.5443</v>
+        <v>37222.9516</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37374.5443</v>
+        <v>37222.9516</v>
       </c>
       <c r="K6" s="1">
-        <v>40547.8985</v>
+        <v>40546.8033</v>
       </c>
       <c r="L6" s="1">
-        <v>16.6942</v>
+        <v>16.7282</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0617</v>
+        <v>-0.06270000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>14.6367</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E7" s="1">
-        <v>3078.7281</v>
+        <v>3072.43</v>
       </c>
       <c r="F7" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>45062.4195</v>
+        <v>44880.2133</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45062.4195</v>
+        <v>44880.2133</v>
       </c>
       <c r="K7" s="1">
-        <v>50547.8985</v>
+        <v>50546.8033</v>
       </c>
       <c r="L7" s="1">
-        <v>16.4184</v>
+        <v>16.4517</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0488</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.0061</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E8" s="1">
-        <v>3761.9422</v>
+        <v>3754.2791</v>
       </c>
       <c r="F8" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>48928.1966</v>
+        <v>48730.9185</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>48928.1966</v>
+        <v>48730.9185</v>
       </c>
       <c r="K8" s="1">
-        <v>60547.8985</v>
+        <v>60546.8033</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0949</v>
+        <v>16.1274</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1385.4276</v>
+        <v>1382.5935</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8614.572399999999</v>
+        <v>-8617.406499999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.1114</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.835</v>
       </c>
       <c r="C9" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D9" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E9" s="1">
-        <v>4530.8122</v>
+        <v>4521.6093</v>
       </c>
       <c r="F9" s="1">
-        <v>822.9438</v>
+        <v>821.095</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>62683.7868</v>
+        <v>62431.2158</v>
       </c>
       <c r="I9" s="1">
-        <v>1385.4276</v>
+        <v>1382.5935</v>
       </c>
       <c r="J9" s="1">
-        <v>64069.2145</v>
+        <v>63813.8093</v>
       </c>
       <c r="K9" s="1">
-        <v>70547.8985</v>
+        <v>70546.8033</v>
       </c>
       <c r="L9" s="1">
-        <v>15.5707</v>
+        <v>15.6021</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11385.4276</v>
+        <v>-11382.5935</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0872</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>14.4216</v>
       </c>
       <c r="C10" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D10" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E10" s="1">
-        <v>5353.756</v>
+        <v>5342.7043</v>
       </c>
       <c r="F10" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>77209.7277</v>
+        <v>76896.474</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77209.7277</v>
+        <v>76896.474</v>
       </c>
       <c r="K10" s="1">
-        <v>81933.32610000001</v>
+        <v>81929.3968</v>
       </c>
       <c r="L10" s="1">
-        <v>15.3039</v>
+        <v>15.3348</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0424</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>13.2404</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E11" s="1">
-        <v>6047.1604</v>
+        <v>6034.7218</v>
       </c>
       <c r="F11" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>80066.8219</v>
+        <v>79742.211</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>80066.8219</v>
+        <v>79742.211</v>
       </c>
       <c r="K11" s="1">
-        <v>91933.32610000001</v>
+        <v>91929.3968</v>
       </c>
       <c r="L11" s="1">
-        <v>15.2027</v>
+        <v>15.2334</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>1927.3522</v>
+        <v>1923.3735</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8072.6478</v>
+        <v>-8076.6265</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.382</v>
       </c>
       <c r="C12" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D12" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E12" s="1">
-        <v>6802.4245</v>
+        <v>6788.4774</v>
       </c>
       <c r="F12" s="1">
-        <v>963.2816</v>
+        <v>961.0354</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>84227.6207</v>
+        <v>83886.5733</v>
       </c>
       <c r="I12" s="1">
-        <v>1927.3522</v>
+        <v>1923.3735</v>
       </c>
       <c r="J12" s="1">
-        <v>86154.97289999999</v>
+        <v>85809.9469</v>
       </c>
       <c r="K12" s="1">
-        <v>101933.3261</v>
+        <v>101929.3968</v>
       </c>
       <c r="L12" s="1">
-        <v>14.9849</v>
+        <v>15.0151</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11927.3522</v>
+        <v>-11923.3735</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0434</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.9583</v>
       </c>
       <c r="C13" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D13" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E13" s="1">
-        <v>7765.7061</v>
+        <v>7749.5128</v>
       </c>
       <c r="F13" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>92864.64320000001</v>
+        <v>92485.7855</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>92864.64320000001</v>
+        <v>92485.7855</v>
       </c>
       <c r="K13" s="1">
-        <v>113860.6783</v>
+        <v>113852.7703</v>
       </c>
       <c r="L13" s="1">
-        <v>14.662</v>
+        <v>14.6916</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>12.2036</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E14" s="1">
-        <v>8601.945400000001</v>
+        <v>8584.0771</v>
       </c>
       <c r="F14" s="1">
-        <v>-8601.945400000001</v>
+        <v>-8584.0771</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>104974.7004</v>
+        <v>104547.192</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>104974.7004</v>
+        <v>104547.192</v>
       </c>
       <c r="K14" s="1">
-        <v>123860.6783</v>
+        <v>123852.7703</v>
       </c>
       <c r="L14" s="1">
-        <v>14.3991</v>
+        <v>14.4282</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2795.6542</v>
+        <v>2789.8246</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>107770.3546</v>
+        <v>107337.0166</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>16.4264</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>17.107</v>
       </c>
       <c r="C3" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E3" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="F3" s="1">
-        <v>566.1815</v>
+        <v>569.752</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9685.666999999999</v>
+        <v>-9766.2904</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0414</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>16.8894</v>
       </c>
       <c r="C4" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D4" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E4" s="1">
-        <v>1174.9576</v>
+        <v>1177.3113</v>
       </c>
       <c r="F4" s="1">
-        <v>610.6986000000001</v>
+        <v>604.7148</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19844.2117</v>
+        <v>19844.288</v>
       </c>
       <c r="I4" s="1">
-        <v>314.333</v>
+        <v>233.7096</v>
       </c>
       <c r="J4" s="1">
-        <v>20158.5448</v>
+        <v>20077.9976</v>
       </c>
       <c r="K4" s="1">
-        <v>19685.667</v>
+        <v>19766.2904</v>
       </c>
       <c r="L4" s="1">
-        <v>16.7544</v>
+        <v>16.7893</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>547.8985</v>
+        <v>546.8033</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9766.434499999999</v>
+        <v>-9686.906300000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0125</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>16.4004</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E5" s="1">
-        <v>1785.6562</v>
+        <v>1782.0261</v>
       </c>
       <c r="F5" s="1">
-        <v>643.1489</v>
+        <v>641.7945999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29285.4764</v>
+        <v>29167.4901</v>
       </c>
       <c r="I5" s="1">
-        <v>547.8985</v>
+        <v>546.8033</v>
       </c>
       <c r="J5" s="1">
-        <v>29833.3749</v>
+        <v>29714.2935</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.8005</v>
+        <v>16.8348</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10547.8985</v>
+        <v>-10546.8033</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0108</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>15.3877</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E6" s="1">
-        <v>2428.8051</v>
+        <v>2423.8207</v>
       </c>
       <c r="F6" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37373.724</v>
+        <v>37222.372</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37373.724</v>
+        <v>37222.372</v>
       </c>
       <c r="K6" s="1">
-        <v>40547.8985</v>
+        <v>40546.8033</v>
       </c>
       <c r="L6" s="1">
-        <v>16.6946</v>
+        <v>16.7285</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0617</v>
+        <v>-0.06270000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>14.6367</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E7" s="1">
-        <v>3078.6748</v>
+        <v>3072.3922</v>
       </c>
       <c r="F7" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>45061.6392</v>
+        <v>44879.662</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45061.6392</v>
+        <v>44879.662</v>
       </c>
       <c r="K7" s="1">
-        <v>50547.8985</v>
+        <v>50546.8033</v>
       </c>
       <c r="L7" s="1">
-        <v>16.4187</v>
+        <v>16.4519</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0488</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.0061</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E8" s="1">
-        <v>3761.8889</v>
+        <v>3754.2414</v>
       </c>
       <c r="F8" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>48927.5032</v>
+        <v>48730.4286</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>48927.5032</v>
+        <v>48730.4286</v>
       </c>
       <c r="K8" s="1">
-        <v>60547.8985</v>
+        <v>60546.8033</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0951</v>
+        <v>16.1276</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1385.4037</v>
+        <v>1382.5765</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8614.596299999999</v>
+        <v>-8617.423500000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.1114</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.835</v>
       </c>
       <c r="C9" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D9" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E9" s="1">
-        <v>4530.7589</v>
+        <v>4521.5715</v>
       </c>
       <c r="F9" s="1">
-        <v>822.9421</v>
+        <v>821.0938</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>62683.0492</v>
+        <v>62430.6947</v>
       </c>
       <c r="I9" s="1">
-        <v>1385.4037</v>
+        <v>1382.5765</v>
       </c>
       <c r="J9" s="1">
-        <v>64068.4529</v>
+        <v>63813.2712</v>
       </c>
       <c r="K9" s="1">
-        <v>70547.8985</v>
+        <v>70546.8033</v>
       </c>
       <c r="L9" s="1">
-        <v>15.5709</v>
+        <v>15.6023</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11385.4037</v>
+        <v>-11382.5765</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0872</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>14.4216</v>
       </c>
       <c r="C10" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D10" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E10" s="1">
-        <v>5353.701</v>
+        <v>5342.6653</v>
       </c>
       <c r="F10" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>77208.9338</v>
+        <v>76895.91310000001</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77208.9338</v>
+        <v>76895.91310000001</v>
       </c>
       <c r="K10" s="1">
-        <v>81933.30220000001</v>
+        <v>81929.3798</v>
       </c>
       <c r="L10" s="1">
-        <v>15.304</v>
+        <v>15.3349</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0424</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>13.2404</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E11" s="1">
-        <v>6047.1053</v>
+        <v>6034.6829</v>
       </c>
       <c r="F11" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>80066.0931</v>
+        <v>79741.6961</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>80066.0931</v>
+        <v>79741.6961</v>
       </c>
       <c r="K11" s="1">
-        <v>91933.30220000001</v>
+        <v>91929.3798</v>
       </c>
       <c r="L11" s="1">
-        <v>15.2029</v>
+        <v>15.2335</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>1927.3323</v>
+        <v>1923.3595</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8072.6677</v>
+        <v>-8076.6405</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.382</v>
       </c>
       <c r="C12" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D12" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E12" s="1">
-        <v>6802.3695</v>
+        <v>6788.4385</v>
       </c>
       <c r="F12" s="1">
-        <v>963.28</v>
+        <v>961.0342000000001</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>84226.9391</v>
+        <v>83886.09179999999</v>
       </c>
       <c r="I12" s="1">
-        <v>1927.3323</v>
+        <v>1923.3595</v>
       </c>
       <c r="J12" s="1">
-        <v>86154.2714</v>
+        <v>85809.4513</v>
       </c>
       <c r="K12" s="1">
-        <v>101933.3022</v>
+        <v>101929.3798</v>
       </c>
       <c r="L12" s="1">
-        <v>14.985</v>
+        <v>15.0151</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11927.3323</v>
+        <v>-11923.3595</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0434</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.9583</v>
       </c>
       <c r="C13" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D13" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E13" s="1">
-        <v>7765.6494</v>
+        <v>7749.4727</v>
       </c>
       <c r="F13" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>92863.96580000001</v>
+        <v>92485.307</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>92863.96580000001</v>
+        <v>92485.307</v>
       </c>
       <c r="K13" s="1">
-        <v>113860.6345</v>
+        <v>113852.7393</v>
       </c>
       <c r="L13" s="1">
-        <v>14.6621</v>
+        <v>14.6917</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>12.2036</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E14" s="1">
-        <v>8601.8887</v>
+        <v>8584.037</v>
       </c>
       <c r="F14" s="1">
-        <v>-8601.8887</v>
+        <v>-8584.037</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>104974.0091</v>
+        <v>104546.7036</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>104974.0091</v>
+        <v>104546.7036</v>
       </c>
       <c r="K14" s="1">
-        <v>123860.6345</v>
+        <v>123852.7393</v>
       </c>
       <c r="L14" s="1">
-        <v>14.3992</v>
+        <v>14.4283</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2795.6338</v>
+        <v>2789.8102</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>107769.6429</v>
+        <v>107336.5138</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>16.4264</v>
       </c>
       <c r="C2" s="1">
-        <v>16.4264</v>
+        <v>16.3936</v>
       </c>
       <c r="D2" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>17.107</v>
       </c>
       <c r="C3" s="1">
-        <v>17.107</v>
+        <v>17.0728</v>
       </c>
       <c r="D3" s="1">
-        <v>17.107</v>
+        <v>17.1413</v>
       </c>
       <c r="E3" s="1">
-        <v>608.7761</v>
+        <v>607.5593</v>
       </c>
       <c r="F3" s="1">
-        <v>569.1043</v>
+        <v>572.6807</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10414.333</v>
+        <v>10372.7376</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.4264</v>
+        <v>16.4593</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9735.666999999999</v>
+        <v>-9816.491</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0414</v>
+        <v>0.0373</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>16.8894</v>
       </c>
       <c r="C4" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D4" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E4" s="1">
-        <v>1177.8804</v>
+        <v>1180.2399</v>
       </c>
       <c r="F4" s="1">
-        <v>607.7382</v>
+        <v>601.7483999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19893.5754</v>
+        <v>19893.6519</v>
       </c>
       <c r="I4" s="1">
-        <v>264.333</v>
+        <v>183.509</v>
       </c>
       <c r="J4" s="1">
-        <v>20157.9085</v>
+        <v>20077.1609</v>
       </c>
       <c r="K4" s="1">
-        <v>19735.667</v>
+        <v>19816.491</v>
       </c>
       <c r="L4" s="1">
-        <v>16.7552</v>
+        <v>16.7902</v>
       </c>
       <c r="M4" s="1">
         <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>547.8985</v>
+        <v>546.8033</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9716.434499999999</v>
+        <v>-9636.705599999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0126</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>16.4004</v>
       </c>
       <c r="C5" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D5" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E5" s="1">
-        <v>1785.6186</v>
+        <v>1781.9883</v>
       </c>
       <c r="F5" s="1">
-        <v>643.1489</v>
+        <v>641.7945999999999</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29284.8588</v>
+        <v>29166.8724</v>
       </c>
       <c r="I5" s="1">
-        <v>547.8985</v>
+        <v>546.8033</v>
       </c>
       <c r="J5" s="1">
-        <v>29832.7573</v>
+        <v>29713.6757</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.8009</v>
+        <v>16.8351</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10547.8985</v>
+        <v>-10546.8033</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0108</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>15.3877</v>
       </c>
       <c r="C6" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D6" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E6" s="1">
-        <v>2428.7674</v>
+        <v>2423.7829</v>
       </c>
       <c r="F6" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37373.1445</v>
+        <v>37221.7924</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37373.1445</v>
+        <v>37221.7924</v>
       </c>
       <c r="K6" s="1">
-        <v>40547.8985</v>
+        <v>40546.8033</v>
       </c>
       <c r="L6" s="1">
-        <v>16.6948</v>
+        <v>16.7287</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0617</v>
+        <v>-0.06270000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>14.6367</v>
       </c>
       <c r="C7" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D7" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E7" s="1">
-        <v>3078.6371</v>
+        <v>3072.3545</v>
       </c>
       <c r="F7" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>45061.088</v>
+        <v>44879.1107</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45061.088</v>
+        <v>44879.1107</v>
       </c>
       <c r="K7" s="1">
-        <v>50547.8985</v>
+        <v>50546.8033</v>
       </c>
       <c r="L7" s="1">
-        <v>16.4189</v>
+        <v>16.4521</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0488</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.0061</v>
       </c>
       <c r="C8" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D8" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E8" s="1">
-        <v>3761.8512</v>
+        <v>3754.2036</v>
       </c>
       <c r="F8" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>48927.0134</v>
+        <v>48729.9387</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>48927.0134</v>
+        <v>48729.9387</v>
       </c>
       <c r="K8" s="1">
-        <v>60547.8985</v>
+        <v>60546.8033</v>
       </c>
       <c r="L8" s="1">
-        <v>16.0952</v>
+        <v>16.1277</v>
       </c>
       <c r="M8" s="1">
         <v>0.5</v>
       </c>
       <c r="N8" s="1">
-        <v>1385.3867</v>
+        <v>1382.5595</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8614.613300000001</v>
+        <v>-8617.440500000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.1114</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.835</v>
       </c>
       <c r="C9" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D9" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E9" s="1">
-        <v>4530.7212</v>
+        <v>4521.5338</v>
       </c>
       <c r="F9" s="1">
-        <v>822.9409000000001</v>
+        <v>821.0925</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>62682.5282</v>
+        <v>62430.1736</v>
       </c>
       <c r="I9" s="1">
-        <v>1385.3867</v>
+        <v>1382.5595</v>
       </c>
       <c r="J9" s="1">
-        <v>64067.9149</v>
+        <v>63812.7331</v>
       </c>
       <c r="K9" s="1">
-        <v>70547.8985</v>
+        <v>70546.8033</v>
       </c>
       <c r="L9" s="1">
-        <v>15.571</v>
+        <v>15.6024</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11385.3867</v>
+        <v>-11382.5595</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0872</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>14.4216</v>
       </c>
       <c r="C10" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D10" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E10" s="1">
-        <v>5353.6621</v>
+        <v>5342.6263</v>
       </c>
       <c r="F10" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>77208.3731</v>
+        <v>76895.3523</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>77208.3731</v>
+        <v>76895.3523</v>
       </c>
       <c r="K10" s="1">
-        <v>81933.2852</v>
+        <v>81929.3628</v>
       </c>
       <c r="L10" s="1">
-        <v>15.3042</v>
+        <v>15.335</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0424</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>13.2404</v>
       </c>
       <c r="C11" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D11" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E11" s="1">
-        <v>6047.0664</v>
+        <v>6034.6439</v>
       </c>
       <c r="F11" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>80065.5782</v>
+        <v>79741.18120000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>80065.5782</v>
+        <v>79741.18120000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91933.2852</v>
+        <v>91929.3628</v>
       </c>
       <c r="L11" s="1">
-        <v>15.203</v>
+        <v>15.2336</v>
       </c>
       <c r="M11" s="1">
         <v>0.4</v>
       </c>
       <c r="N11" s="1">
-        <v>1927.3184</v>
+        <v>1923.3455</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8072.6816</v>
+        <v>-8076.6545</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0819</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.382</v>
       </c>
       <c r="C12" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D12" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E12" s="1">
-        <v>6802.3306</v>
+        <v>6788.3995</v>
       </c>
       <c r="F12" s="1">
-        <v>963.2788</v>
+        <v>961.0331</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>84226.45759999999</v>
+        <v>83885.6103</v>
       </c>
       <c r="I12" s="1">
-        <v>1927.3184</v>
+        <v>1923.3455</v>
       </c>
       <c r="J12" s="1">
-        <v>86153.776</v>
+        <v>85808.95570000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101933.2852</v>
+        <v>101929.3628</v>
       </c>
       <c r="L12" s="1">
-        <v>14.9851</v>
+        <v>15.0152</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11927.3184</v>
+        <v>-11923.3455</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0434</v>
+        <v>-0.0438</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.9583</v>
       </c>
       <c r="C13" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D13" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E13" s="1">
-        <v>7765.6094</v>
+        <v>7749.4326</v>
       </c>
       <c r="F13" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>92863.48729999999</v>
+        <v>92484.8284</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>92863.48729999999</v>
+        <v>92484.8284</v>
       </c>
       <c r="K13" s="1">
-        <v>113860.6036</v>
+        <v>113852.7083</v>
       </c>
       <c r="L13" s="1">
-        <v>14.6622</v>
+        <v>14.6917</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0342</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>12.2036</v>
       </c>
       <c r="C14" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D14" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E14" s="1">
-        <v>8601.8487</v>
+        <v>8583.9969</v>
       </c>
       <c r="F14" s="1">
-        <v>-8601.8487</v>
+        <v>-8583.9969</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>104973.5208</v>
+        <v>104546.2152</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>104973.5208</v>
+        <v>104546.2152</v>
       </c>
       <c r="K14" s="1">
-        <v>123860.6036</v>
+        <v>123852.7083</v>
       </c>
       <c r="L14" s="1">
-        <v>14.3993</v>
+        <v>14.4283</v>
       </c>
       <c r="M14" s="1">
         <v>0.4</v>
       </c>
       <c r="N14" s="1">
-        <v>2795.6194</v>
+        <v>2789.7957</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>107769.1402</v>
+        <v>107336.011</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0205</v>
+        <v>0.0201</v>
       </c>
     </row>
   </sheetData>
@@ -4452,9 +4452,9 @@
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>14.376</v>
+        <v>14.4049</v>
       </c>
       <c r="D3" s="1">
-        <v>14.3986</v>
+        <v>14.428</v>
       </c>
       <c r="E3" s="1">
-        <v>14.3991</v>
+        <v>14.4282</v>
       </c>
       <c r="F3" s="1">
-        <v>14.3992</v>
+        <v>14.4283</v>
       </c>
       <c r="G3" s="1">
-        <v>14.3993</v>
+        <v>14.4283</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2765</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.2113</v>
+        <v>-0.2241</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.213</v>
+        <v>-0.226</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.2132</v>
+        <v>-0.2261</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.2132</v>
+        <v>-0.2261</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.2133</v>
+        <v>-0.2261</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1825</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1893</v>
+        <v>0.1881</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1908</v>
+        <v>0.1897</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1908</v>
+        <v>0.1897</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1908</v>
+        <v>0.1897</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1908</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.6263</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.224</v>
+        <v>-1.2993</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.223</v>
+        <v>-1.2986</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.224</v>
+        <v>-1.299</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.2242</v>
+        <v>-1.2992</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.2243</v>
+        <v>-1.2994</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1833</v>
+        <v>-0.1897</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.1835</v>
+        <v>-0.1897</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.1835</v>
+        <v>-0.1897</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.1835</v>
+        <v>-0.1897</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.1835</v>
+        <v>-0.1897</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6576.3647</v>
+        <v>6563.0412</v>
       </c>
       <c r="D8" s="1">
-        <v>6656.6986</v>
+        <v>6642.7222</v>
       </c>
       <c r="E8" s="1">
-        <v>6656.3325</v>
+        <v>6642.595</v>
       </c>
       <c r="F8" s="1">
-        <v>6656.2683</v>
+        <v>6642.5495</v>
       </c>
       <c r="G8" s="1">
-        <v>6656.223</v>
+        <v>6642.5041</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P48_KFSDIV.xlsx
+++ b/output/1Y_P48_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8075.4815</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8462</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8442</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8441</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8441</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
